--- a/PROYECTO_FINAL_G4/DOCUMENTACION_G4/ELICITACION/1.2 CRONOGRAMA/Plan de implementación_V_02.xlsx
+++ b/PROYECTO_FINAL_G4/DOCUMENTACION_G4/ELICITACION/1.2 CRONOGRAMA/Plan de implementación_V_02.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\5437_G4INGSWI\PROYECTO_FINAL_G4\DOCUMENTACION_G4\ELICITACION\1.2 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIANQUIZ\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9960FC89-F337-48D1-9233-52F729046017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -189,9 +188,6 @@
     <t>Ingresar todos los campos obligatorios que da la aplicación para el registro</t>
   </si>
   <si>
-    <t>Iniciar sesión en la aplicación ingresando el usuario y contraseña. El usuario y contraseña serán de opción abierta, en el caso del usuario no deberá existir duplicados}.</t>
-  </si>
-  <si>
     <t>REQ002</t>
   </si>
   <si>
@@ -212,12 +208,15 @@
   <si>
     <t>Validación de REQ002</t>
   </si>
+  <si>
+    <t>Iniciar sesión en la aplicación ingresando el usuario y contraseña. El usuario y contraseña serán de opción abierta, en el caso del usuario no deberá existir duplicados.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,17 +254,37 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -312,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -475,66 +494,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,17 +571,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,50 +583,121 @@
     <xf numFmtId="14" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,11 +914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -907,15 +990,15 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -937,25 +1020,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1"/>
@@ -979,15 +1062,15 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1009,28 +1092,28 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="33" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="22">
         <v>44708</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="39">
         <v>44435</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1051,28 +1134,28 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="22">
         <v>44342</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="23">
         <v>44346</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1093,15 +1176,15 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1123,25 +1206,25 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="44">
         <v>44708</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="44">
         <v>44346</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="45" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1"/>
@@ -1165,19 +1248,19 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1199,15 +1282,15 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1229,19 +1312,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="30"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1263,19 +1346,19 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="30"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1297,15 +1380,15 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="30"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1327,17 +1410,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1359,19 +1442,19 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="26.25" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="30"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1393,19 +1476,19 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="45" customHeight="1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="30"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1427,17 +1510,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="42" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1459,15 +1542,15 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="45" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1489,23 +1572,23 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="42.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="22">
         <v>44717</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="7">
+      <c r="E20" s="21"/>
+      <c r="F20" s="23">
         <v>44717</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="1"/>
@@ -1529,23 +1612,23 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="45.75" customHeight="1">
-      <c r="A21" s="39" t="s">
-        <v>53</v>
+      <c r="A21" s="24" t="s">
+        <v>52</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="26">
         <v>44739</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="45">
+      <c r="E21" s="27"/>
+      <c r="F21" s="28">
         <v>44747</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1"/>
@@ -1569,13 +1652,13 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1597,24 +1680,24 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A23" s="39" t="s">
-        <v>52</v>
+      <c r="A23" s="24" t="s">
+        <v>51</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>51</v>
+      <c r="C23" s="33" t="s">
+        <v>58</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="26">
         <v>44739</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="45">
+      <c r="E23" s="34"/>
+      <c r="F23" s="28">
         <v>44747</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>54</v>
+      <c r="G23" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1637,13 +1720,13 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1665,25 +1748,25 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="38.25" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="13">
         <v>44711</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="13">
         <v>44721</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="1"/>
@@ -1707,15 +1790,15 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1737,25 +1820,25 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="46.5" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>10</v>
+      <c r="D27" s="17">
+        <v>44745</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="E27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="51">
-        <v>44745</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="51">
+      <c r="F27" s="17">
         <v>44747</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="1"/>
@@ -1779,17 +1862,17 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="39.75" customHeight="1">
-      <c r="A28" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="48" t="s">
+      <c r="A28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -26031,36 +26114,8 @@
       <c r="Z895" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F9:F18"/>
-    <mergeCell ref="G9:G18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D9:D18"/>
-    <mergeCell ref="E9:E18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="C17:C18"/>
+  <mergeCells count="39">
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="F21:F22"/>
@@ -26069,8 +26124,38 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D9:D18"/>
+    <mergeCell ref="E9:E18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>